--- a/inventario_clasificacion_activo_historial.xlsx
+++ b/inventario_clasificacion_activo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>ID Inventario Clasificacion Activo</t>
   </si>
@@ -113,79 +113,52 @@
     <t>ValorA</t>
   </si>
   <si>
-    <t>Borrador</t>
-  </si>
-  <si>
-    <t>2023-03-09 10:36:52.000</t>
-  </si>
-  <si>
-    <t>LOGISTICA</t>
-  </si>
-  <si>
-    <t>Activo A</t>
-  </si>
-  <si>
-    <t>hola</t>
-  </si>
-  <si>
-    <t>2023-03-09 06:29:49.000</t>
-  </si>
-  <si>
-    <t>Financiera Prueba</t>
-  </si>
-  <si>
-    <t>Activo 1</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
     <t>Observado</t>
   </si>
   <si>
-    <t>2023-03-09 12:09:51.000</t>
+    <t>2023-03-17 11:21:37.000</t>
   </si>
   <si>
     <t>Registrado</t>
   </si>
   <si>
-    <t>2023-03-09 12:14:56.000</t>
-  </si>
-  <si>
-    <t>ValorAA</t>
-  </si>
-  <si>
-    <t>2023-03-09 12:15:13.000</t>
-  </si>
-  <si>
-    <t>2023-03-09 12:15:34.000</t>
-  </si>
-  <si>
-    <t>2023-03-09 12:26:21.000</t>
-  </si>
-  <si>
-    <t>2023-03-09 12:29:13.000</t>
-  </si>
-  <si>
-    <t>2023-03-09 12:29:31.000</t>
-  </si>
-  <si>
-    <t>2023-03-09 12:30:41.000</t>
-  </si>
-  <si>
-    <t>2023-03-09 12:31:01.000</t>
-  </si>
-  <si>
-    <t>2023-03-09 12:39:21.000</t>
-  </si>
-  <si>
-    <t>2023-03-09 12:39:41.000</t>
-  </si>
-  <si>
-    <t>Acitvo B</t>
-  </si>
-  <si>
-    <t>TIPO C</t>
+    <t>2023-03-17 11:21:57.000</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
+  </si>
+  <si>
+    <t>2023-03-17 11:22:12.000</t>
+  </si>
+  <si>
+    <t>Activo AAA</t>
+  </si>
+  <si>
+    <t>2023-03-20 10:00:56.000</t>
+  </si>
+  <si>
+    <t>2023-03-20 10:01:09.000</t>
+  </si>
+  <si>
+    <t>2023-03-20 10:01:27.000</t>
+  </si>
+  <si>
+    <t>2023-03-20 10:01:48.000</t>
+  </si>
+  <si>
+    <t>2023-03-20 10:03:31.000</t>
+  </si>
+  <si>
+    <t>Unidad RH</t>
+  </si>
+  <si>
+    <t>Activo bbbb</t>
+  </si>
+  <si>
+    <t>TIPO D</t>
   </si>
   <si>
     <t>Categoria C</t>
@@ -194,19 +167,16 @@
     <t>Javier Prado 1005</t>
   </si>
   <si>
-    <t>Este riesgo esta por aprobar</t>
-  </si>
-  <si>
-    <t>2023-03-09 14:39:58.000</t>
-  </si>
-  <si>
-    <t>2023-03-09 14:40:21.000</t>
-  </si>
-  <si>
-    <t>Aprobado</t>
-  </si>
-  <si>
-    <t>2023-03-09 14:40:37.000</t>
+    <t>ValorB</t>
+  </si>
+  <si>
+    <t>2023-03-20 10:11:01.000</t>
+  </si>
+  <si>
+    <t>2023-03-20 10:11:24.000</t>
+  </si>
+  <si>
+    <t>2023-03-20 10:11:48.000</t>
   </si>
 </sst>
 </file>
@@ -542,7 +512,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,7 +584,7 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -665,24 +635,24 @@
         <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="S2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -694,10 +664,10 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>26</v>
@@ -709,7 +679,7 @@
         <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
         <v>30</v>
@@ -727,21 +697,21 @@
         <v>31</v>
       </c>
       <c r="R3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" t="s">
         <v>36</v>
-      </c>
-      <c r="S3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -756,10 +726,10 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
@@ -789,21 +759,21 @@
         <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="S4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5">
-        <v>4</v>
+        <v>1007</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -851,18 +821,18 @@
         <v>31</v>
       </c>
       <c r="R5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" t="s">
         <v>40</v>
-      </c>
-      <c r="S5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6">
-        <v>3</v>
+        <v>1007</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -880,10 +850,10 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
         <v>26</v>
@@ -901,30 +871,30 @@
         <v>30</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7">
-        <v>3</v>
+        <v>1007</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -942,10 +912,10 @@
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
         <v>26</v>
@@ -963,33 +933,33 @@
         <v>30</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8">
-        <v>4</v>
+        <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1037,21 +1007,21 @@
         <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="T8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9">
-        <v>4</v>
+        <v>1007</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -1099,27 +1069,27 @@
         <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10">
-        <v>4</v>
+        <v>1008</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -1128,19 +1098,19 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="L10" t="s">
         <v>29</v>
@@ -1149,39 +1119,39 @@
         <v>30</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <v>3</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="R10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="S10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11">
-        <v>4</v>
+        <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
@@ -1190,19 +1160,19 @@
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="L11" t="s">
         <v>29</v>
@@ -1211,39 +1181,39 @@
         <v>30</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>3</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="R11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="S11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12">
-        <v>4</v>
+        <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
@@ -1252,19 +1222,19 @@
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="L12" t="s">
         <v>29</v>
@@ -1273,335 +1243,25 @@
         <v>30</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O12">
         <v>3</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="R12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="S12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13">
-        <v>2</v>
-      </c>
-      <c r="O13">
-        <v>3</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>31</v>
-      </c>
-      <c r="R13" t="s">
-        <v>40</v>
-      </c>
-      <c r="S13" t="s">
-        <v>43</v>
-      </c>
-      <c r="T13" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14">
-        <v>2</v>
-      </c>
-      <c r="O14">
-        <v>3</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>31</v>
-      </c>
-      <c r="R14" t="s">
-        <v>40</v>
-      </c>
-      <c r="S14" t="s">
-        <v>41</v>
-      </c>
-      <c r="T14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>45</v>
-      </c>
-      <c r="R15" t="s">
-        <v>59</v>
-      </c>
-      <c r="S15" t="s">
-        <v>41</v>
-      </c>
-      <c r="T15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M16" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>45</v>
-      </c>
-      <c r="R16" t="s">
-        <v>59</v>
-      </c>
-      <c r="S16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>45</v>
-      </c>
-      <c r="R17" t="s">
-        <v>59</v>
-      </c>
-      <c r="S17" t="s">
-        <v>62</v>
-      </c>
-      <c r="T17" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/inventario_clasificacion_activo_historial.xlsx
+++ b/inventario_clasificacion_activo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>ID Inventario Clasificacion Activo</t>
   </si>
@@ -177,6 +177,33 @@
   </si>
   <si>
     <t>2023-03-20 10:11:48.000</t>
+  </si>
+  <si>
+    <t>Activo B</t>
+  </si>
+  <si>
+    <t>TIPO E</t>
+  </si>
+  <si>
+    <t>Categoria D</t>
+  </si>
+  <si>
+    <t>Sub Gerente H</t>
+  </si>
+  <si>
+    <t>ValorBB</t>
+  </si>
+  <si>
+    <t>Esta es una prueba</t>
+  </si>
+  <si>
+    <t>2023-03-20 20:21:08.000</t>
+  </si>
+  <si>
+    <t>2023-03-20 20:21:54.000</t>
+  </si>
+  <si>
+    <t>2023-03-20 20:22:24.000</t>
   </si>
 </sst>
 </file>
@@ -512,7 +539,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1262,6 +1289,192 @@
       </c>
       <c r="T12" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>1009</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>58</v>
+      </c>
+      <c r="R13" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>1009</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>58</v>
+      </c>
+      <c r="R14" t="s">
+        <v>59</v>
+      </c>
+      <c r="S14" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <v>1009</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>58</v>
+      </c>
+      <c r="R15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S15" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/inventario_clasificacion_activo_historial.xlsx
+++ b/inventario_clasificacion_activo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>ID Inventario Clasificacion Activo</t>
   </si>
@@ -204,6 +204,36 @@
   </si>
   <si>
     <t>2023-03-20 20:22:24.000</t>
+  </si>
+  <si>
+    <t>Esta es una pruebaa</t>
+  </si>
+  <si>
+    <t>2023-03-21 08:25:53.000</t>
+  </si>
+  <si>
+    <t>MACRO RH</t>
+  </si>
+  <si>
+    <t>PROCESO RH</t>
+  </si>
+  <si>
+    <t>Activo Testing</t>
+  </si>
+  <si>
+    <t>ValorAA</t>
+  </si>
+  <si>
+    <t>2023-03-21 10:26:49.000</t>
+  </si>
+  <si>
+    <t>Activo Testeo</t>
+  </si>
+  <si>
+    <t>Este es un comentario</t>
+  </si>
+  <si>
+    <t>2023-03-21 10:32:41.000</t>
   </si>
 </sst>
 </file>
@@ -539,7 +569,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1475,6 +1505,192 @@
       </c>
       <c r="T15" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <v>1009</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>58</v>
+      </c>
+      <c r="R16" t="s">
+        <v>63</v>
+      </c>
+      <c r="S16" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <v>1011</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>68</v>
+      </c>
+      <c r="R17" t="s">
+        <v>67</v>
+      </c>
+      <c r="S17" t="s">
+        <v>37</v>
+      </c>
+      <c r="T17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <v>1010</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>58</v>
+      </c>
+      <c r="R18" t="s">
+        <v>71</v>
+      </c>
+      <c r="S18" t="s">
+        <v>37</v>
+      </c>
+      <c r="T18" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/inventario_clasificacion_activo_historial.xlsx
+++ b/inventario_clasificacion_activo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>ID Inventario Clasificacion Activo</t>
   </si>
@@ -234,6 +234,27 @@
   </si>
   <si>
     <t>2023-03-21 10:32:41.000</t>
+  </si>
+  <si>
+    <t>Activo testingg</t>
+  </si>
+  <si>
+    <t>2023-03-21 11:19:27.000</t>
+  </si>
+  <si>
+    <t>2023-03-21 11:19:52.000</t>
+  </si>
+  <si>
+    <t>2023-03-21 11:20:09.000</t>
+  </si>
+  <si>
+    <t>2023-03-21 15:19:34.000</t>
+  </si>
+  <si>
+    <t>2023-03-21 15:23:07.000</t>
+  </si>
+  <si>
+    <t>2023-03-21 15:23:22.000</t>
   </si>
 </sst>
 </file>
@@ -569,7 +590,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1691,6 +1712,378 @@
       </c>
       <c r="T18" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19">
+        <v>1012</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>50</v>
+      </c>
+      <c r="R19" t="s">
+        <v>73</v>
+      </c>
+      <c r="S19" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20">
+        <v>1012</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" t="s">
+        <v>57</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>50</v>
+      </c>
+      <c r="R20" t="s">
+        <v>73</v>
+      </c>
+      <c r="S20" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21">
+        <v>1012</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>50</v>
+      </c>
+      <c r="R21" t="s">
+        <v>73</v>
+      </c>
+      <c r="S21" t="s">
+        <v>37</v>
+      </c>
+      <c r="T21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22">
+        <v>1013</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>68</v>
+      </c>
+      <c r="R22" t="s">
+        <v>67</v>
+      </c>
+      <c r="S22" t="s">
+        <v>33</v>
+      </c>
+      <c r="T22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23">
+        <v>1013</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>68</v>
+      </c>
+      <c r="R23" t="s">
+        <v>67</v>
+      </c>
+      <c r="S23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24">
+        <v>1013</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>68</v>
+      </c>
+      <c r="R24" t="s">
+        <v>67</v>
+      </c>
+      <c r="S24" t="s">
+        <v>37</v>
+      </c>
+      <c r="T24" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/inventario_clasificacion_activo_historial.xlsx
+++ b/inventario_clasificacion_activo_historial.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>Reporte de inventario de clasificación de activo</t>
+  </si>
   <si>
     <t>ID Inventario Clasificacion Activo</t>
   </si>
@@ -75,6 +78,99 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>Financiera Efectiva SA</t>
+  </si>
+  <si>
+    <t>Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Unidad Humanos</t>
+  </si>
+  <si>
+    <t>Rh Macro</t>
+  </si>
+  <si>
+    <t>Rh Proceso</t>
+  </si>
+  <si>
+    <t>Activo A</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>Javier Prado</t>
+  </si>
+  <si>
+    <t>Gerente RH</t>
+  </si>
+  <si>
+    <t>ValorA</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
+  </si>
+  <si>
+    <t>2023-03-25 01:26:31.000000</t>
+  </si>
+  <si>
+    <t>Registrado</t>
+  </si>
+  <si>
+    <t>2023-03-26 12:45:36.000000</t>
+  </si>
+  <si>
+    <t>Observado</t>
+  </si>
+  <si>
+    <t>2023-03-26 12:52:28.000000</t>
+  </si>
+  <si>
+    <t>2023-03-26 12:53:12.000000</t>
+  </si>
+  <si>
+    <t>2023-03-26 12:55:59.000000</t>
+  </si>
+  <si>
+    <t>2023-03-26 12:56:52.000000</t>
+  </si>
+  <si>
+    <t>2023-03-26 14:26:59.000000</t>
+  </si>
+  <si>
+    <t>2023-03-26 14:58:09.000000</t>
+  </si>
+  <si>
+    <t>2023-03-26 15:01:50.000000</t>
+  </si>
+  <si>
+    <t>2023-03-26 16:42:15.000000</t>
+  </si>
+  <si>
+    <t>Activo D</t>
+  </si>
+  <si>
+    <t>2023-03-26 16:45:58.000000</t>
+  </si>
+  <si>
+    <t>2023-03-26 16:46:47.000000</t>
+  </si>
+  <si>
+    <t>2023-03-26 17:00:09.000000</t>
+  </si>
+  <si>
+    <t>2023-03-26 17:00:43.000000</t>
+  </si>
+  <si>
+    <t>2023-03-26 17:03:29.000000</t>
+  </si>
+  <si>
+    <t>2023-03-26 17:05:31.000000</t>
   </si>
 </sst>
 </file>
@@ -82,7 +178,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -92,13 +188,37 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1B7ADE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,8 +227,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -410,77 +536,1112 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A6" sqref="A6:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="P6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Q6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="R6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="S6" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="T6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" t="s">
+        <v>45</v>
+      </c>
+      <c r="S17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" t="s">
+        <v>45</v>
+      </c>
+      <c r="S19" t="s">
+        <v>34</v>
+      </c>
+      <c r="T19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" t="s">
+        <v>45</v>
+      </c>
+      <c r="S21" t="s">
+        <v>34</v>
+      </c>
+      <c r="T21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" t="s">
+        <v>45</v>
+      </c>
+      <c r="S22" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="B1:R2"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/inventario_clasificacion_activo_historial.xlsx
+++ b/inventario_clasificacion_activo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Reporte de inventario de clasificación de activo</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>2023-03-27 16:44:22.000000</t>
+  </si>
+  <si>
+    <t>Registrado</t>
+  </si>
+  <si>
+    <t>2023-03-29 09:38:26.000000</t>
+  </si>
+  <si>
+    <t>2023-03-29 12:21:06.000000</t>
   </si>
 </sst>
 </file>
@@ -488,7 +497,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:T6"/>
@@ -722,6 +731,130 @@
         <v>35</v>
       </c>
     </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B1:R2"/>
